--- a/res/Zeitplan.xlsx
+++ b/res/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\BA\BA\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ADBB72-105E-4B2D-91E5-A79560AC08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315CF62-95C7-4E73-9A2D-7972E363E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{65903684-AB4D-49FD-97D5-9C19BA6994D4}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="10044" xr2:uid="{65903684-AB4D-49FD-97D5-9C19BA6994D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -228,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -246,8 +242,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +665,7 @@
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,8 +812,8 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="15"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -1288,8 +1282,8 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="15"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
@@ -1335,11 +1329,11 @@
       <c r="AH13" s="15"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="18"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="5"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
@@ -1382,9 +1376,9 @@
       <c r="AJ14" s="15"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="18"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="5"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -1427,9 +1421,9 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="18"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="5"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -1474,7 +1468,7 @@
       <c r="AL16" s="4"/>
       <c r="AM16" s="15"/>
       <c r="AN16" s="15"/>
-      <c r="AO16" s="18"/>
+      <c r="AO16" s="5"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" s="11">

--- a/res/Zeitplan.xlsx
+++ b/res/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\BA\BA\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\BA\BA\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315CF62-95C7-4E73-9A2D-7972E363E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCBB9C-53BC-4B2E-859B-20E15F3D94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="10044" xr2:uid="{65903684-AB4D-49FD-97D5-9C19BA6994D4}"/>
+    <workbookView xWindow="2205" yWindow="1650" windowWidth="24315" windowHeight="12720" xr2:uid="{65903684-AB4D-49FD-97D5-9C19BA6994D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -665,15 +665,15 @@
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="44" width="4.77734375" customWidth="1"/>
+    <col min="2" max="44" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -795,7 +795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44910</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="AN2" s="4"/>
       <c r="AO2" s="5"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>44911</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="5"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>44912</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="AN4" s="4"/>
       <c r="AO4" s="5"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>44913</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="AN5" s="4"/>
       <c r="AO5" s="5"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44914</v>
       </c>
@@ -994,8 +994,8 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1020,7 +1020,7 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>44915</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>44916</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="AN8" s="4"/>
       <c r="AO8" s="5"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>44917</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="5"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44918</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="5"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>44919</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="5"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>44920</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="5"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44921</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="5"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>44922</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="5"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44923</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="5"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>44924</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="AN16" s="15"/>
       <c r="AO16" s="5"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>44925</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="16"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>44926</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="5"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>44927</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="AN19" s="4"/>
       <c r="AO19" s="5"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>44928</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="AN20" s="4"/>
       <c r="AO20" s="5"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>44929</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="AN21" s="4"/>
       <c r="AO21" s="5"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>44930</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="AN22" s="4"/>
       <c r="AO22" s="5"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>44931</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="AN23" s="4"/>
       <c r="AO23" s="5"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>44932</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="AN24" s="4"/>
       <c r="AO24" s="5"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>44933</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="AN25" s="4"/>
       <c r="AO25" s="5"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>44934</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="AN26" s="4"/>
       <c r="AO26" s="5"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44935</v>
       </c>

--- a/res/Zeitplan.xlsx
+++ b/res/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\BA\BA\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCBB9C-53BC-4B2E-859B-20E15F3D94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F91FA8-7D5F-4C16-B811-BE7CCC0A50A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="1650" windowWidth="24315" windowHeight="12720" xr2:uid="{65903684-AB4D-49FD-97D5-9C19BA6994D4}"/>
   </bookViews>
@@ -46,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +71,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -243,6 +249,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -665,7 +673,7 @@
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,9 +1094,9 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -1134,9 +1142,9 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
@@ -1182,9 +1190,9 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -1230,9 +1238,9 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="15"/>
@@ -1278,9 +1286,9 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
@@ -1326,9 +1334,9 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -1374,9 +1382,9 @@
       <c r="AH14" s="4"/>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="5"/>
     </row>
@@ -1422,8 +1430,8 @@
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="5"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="19"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="11">

--- a/res/Zeitplan.xlsx
+++ b/res/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\BA\BA\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F91FA8-7D5F-4C16-B811-BE7CCC0A50A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19235E4-9790-4726-978F-4AC76246C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1650" windowWidth="24315" windowHeight="12720" xr2:uid="{65903684-AB4D-49FD-97D5-9C19BA6994D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65903684-AB4D-49FD-97D5-9C19BA6994D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,12 +71,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -230,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -249,8 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -296,8 +288,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5052060" y="358140"/>
-          <a:ext cx="8846820" cy="4389120"/>
+          <a:off x="4848225" y="365760"/>
+          <a:ext cx="8486775" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -673,7 +665,7 @@
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,9 +858,9 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -911,11 +903,11 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -956,13 +948,13 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -1008,8 +1000,8 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -1048,15 +1040,15 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -1095,15 +1087,15 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
@@ -1140,17 +1132,17 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="17"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
@@ -1185,19 +1177,19 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="T10" s="17"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -1230,7 +1222,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="T11" s="17"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -1238,13 +1230,13 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
@@ -1275,7 +1267,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="17"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -1286,10 +1278,10 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="15"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
@@ -1320,7 +1312,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="T13" s="17"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -1334,9 +1326,9 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -1365,8 +1357,8 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -1380,11 +1372,11 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18"/>
-      <c r="AM14" s="18"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="5"/>
     </row>
@@ -1411,9 +1403,9 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="15"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -1427,11 +1419,11 @@
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="19"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="5"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -1459,8 +1451,8 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
@@ -1474,8 +1466,8 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
       <c r="AO16" s="5"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -1506,8 +1498,8 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -1521,7 +1513,7 @@
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
-      <c r="AO17" s="16"/>
+      <c r="AO17" s="5"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -1553,7 +1545,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
+      <c r="AB18" s="15"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
@@ -1599,7 +1591,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
+      <c r="AC19" s="15"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -1645,8 +1637,8 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
@@ -1692,8 +1684,8 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
@@ -1739,8 +1731,8 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
@@ -1786,8 +1778,8 @@
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
@@ -1833,8 +1825,8 @@
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="5"/>
     </row>
@@ -1880,8 +1872,8 @@
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="5"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="16"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="11">

--- a/res/Zeitplan.xlsx
+++ b/res/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\BA\BA\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\BA\BA\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19235E4-9790-4726-978F-4AC76246C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C9549A-AC32-4666-9390-EAB50FE7D0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65903684-AB4D-49FD-97D5-9C19BA6994D4}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="10044" xr2:uid="{65903684-AB4D-49FD-97D5-9C19BA6994D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -664,16 +664,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892BEF95-1CBF-4637-B683-2716B288A815}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="44" width="4.7109375" customWidth="1"/>
+    <col min="2" max="44" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -795,7 +795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44910</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="AN2" s="4"/>
       <c r="AO2" s="5"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>44911</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="5"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>44912</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="AN4" s="4"/>
       <c r="AO4" s="5"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44913</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="AN5" s="4"/>
       <c r="AO5" s="5"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>44914</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>44915</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>44916</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="AN8" s="4"/>
       <c r="AO8" s="5"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>44917</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="5"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>44918</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="5"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>44919</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="5"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>44920</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="5"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>44921</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="5"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44922</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="5"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>44923</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="AN15" s="4"/>
       <c r="AO15" s="5"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>44924</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="V16" s="17"/>
       <c r="W16" s="4"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
@@ -1470,7 +1470,7 @@
       <c r="AN16" s="4"/>
       <c r="AO16" s="5"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>44925</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+      <c r="W17" s="17"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="15"/>
@@ -1515,7 +1515,7 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="5"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>44926</v>
       </c>
@@ -1541,8 +1541,8 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="15"/>
@@ -1560,7 +1560,7 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="5"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>44927</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="AN19" s="4"/>
       <c r="AO19" s="5"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>44928</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="AN20" s="4"/>
       <c r="AO20" s="5"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>44929</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="AN21" s="4"/>
       <c r="AO21" s="5"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>44930</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="AN22" s="4"/>
       <c r="AO22" s="5"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>44931</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="AN23" s="4"/>
       <c r="AO23" s="5"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>44932</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="AN24" s="4"/>
       <c r="AO24" s="5"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>44933</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="AN25" s="15"/>
       <c r="AO25" s="16"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>44934</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="AN26" s="4"/>
       <c r="AO26" s="5"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>44935</v>
       </c>
